--- a/biology/Zoologie/Arenicola/Arenicola.xlsx
+++ b/biology/Zoologie/Arenicola/Arenicola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arenicola est un genre d'annélides marins de la famille des Arenicolidae. Ce genre cosmopolite regroupe des espèces qui vivent dans des terriers de sable plus ou moins vaseux, saturés d'eau de mer. Assez robustes, ils mesurent de 10 à 40 cm de longueur et sont souvent utilisés comme appât pour la pêche[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arenicola est un genre d'annélides marins de la famille des Arenicolidae. Ce genre cosmopolite regroupe des espèces qui vivent dans des terriers de sable plus ou moins vaseux, saturés d'eau de mer. Assez robustes, ils mesurent de 10 à 40 cm de longueur et sont souvent utilisés comme appât pour la pêche.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (25 avr. 2010)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (25 avr. 2010) :
 Arenicola brasiliensis (Nonato, 1958)
 Arenicola cristata Stimpson, 1856
 Arenicola glacialis
 Arenicola marina (Linnaeus, 1758) - arénicole
-Selon NCBI  (25 avr. 2010)[3] :
+Selon NCBI  (25 avr. 2010) :
 Arenicola brasiliensis (Nonato, 1958)
 Arenicola cristata Stimpson, 1856
 Arenicola defodiens Cadman &amp; Nelson-Smith, 1993
